--- a/test_data_template.xlsx
+++ b/test_data_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidre\Documents\TCS\Projects\data_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidre\Documents\TCS\Projects\Data_Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5BA29-606F-4C81-AD43-7ACA7DA30C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02513E7-3F82-4B14-9A04-510D6F09A7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -258,7 +258,7 @@
 Rule: type:string; pattern:@@@@-###; unique:true</t>
   </si>
   <si>
-    <t>type:integer; range:1000-999999; unique:true</t>
+    <t>type:integer; range:1000-9999; unique:true</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>100000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
